--- a/demo/武功祕笈/新版銀行.xlsx
+++ b/demo/武功祕笈/新版銀行.xlsx
@@ -285,14 +285,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>backid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>backabbrcode</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>usname.fullname</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -309,10 +301,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>backatmno</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>swiftno</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -430,6 +418,18 @@
   </si>
   <si>
     <t>若無輸入值，存檔時存空字串</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankabbrcode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankatmno</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3301,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3354,7 +3354,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="90" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>63</v>
@@ -3369,7 +3369,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="61" t="s">
         <v>64</v>
@@ -3384,7 +3384,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="90" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>65</v>
@@ -3399,7 +3399,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C6" s="83" t="s">
         <v>66</v>
@@ -3414,7 +3414,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="90" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="85" t="s">
         <v>67</v>
@@ -3426,10 +3426,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B9" s="93" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3451,10 +3451,10 @@
         <v>69</v>
       </c>
       <c r="C13" s="85" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D13" s="86" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E13" s="80" t="s">
         <v>61</v>
@@ -3464,13 +3464,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="60" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14" s="85" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="85" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="D14" s="80" t="s">
         <v>61</v>
@@ -3489,7 +3489,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="85" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D15" s="80" t="s">
         <v>61</v>
@@ -3500,32 +3500,32 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="81" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B16" s="85" t="s">
         <v>69</v>
       </c>
       <c r="C16" s="85" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16" s="77" t="s">
         <v>61</v>
       </c>
       <c r="E16" s="65"/>
       <c r="F16" s="67" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G16" s="79"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="60" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B17" s="85" t="s">
         <v>69</v>
       </c>
       <c r="C17" s="85" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D17" s="80" t="s">
         <v>61</v>
@@ -3536,13 +3536,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B18" s="85" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="85" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" s="77" t="s">
         <v>61</v>
@@ -3562,7 +3562,7 @@
         <v>66</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E19" s="65"/>
       <c r="F19" s="67"/>
@@ -3576,10 +3576,10 @@
         <v>69</v>
       </c>
       <c r="C20" s="85" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E20" s="56"/>
       <c r="F20" s="56"/>
@@ -3587,47 +3587,47 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="84" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B21" s="85" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="56"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B22" s="85" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="85" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E22" s="56"/>
       <c r="F22" s="87" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G22" s="87" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="88" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B23" s="85" t="s">
         <v>69</v>
@@ -3640,16 +3640,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="88" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B24" s="85" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="85" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="88" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B25" s="85" t="s">
         <v>69</v>
       </c>
       <c r="C25" s="85" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
@@ -3674,16 +3674,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B26" s="85" t="s">
         <v>69</v>
       </c>
       <c r="C26" s="85" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
@@ -3691,16 +3691,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="88" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B27" s="85" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="85" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
@@ -3708,16 +3708,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="88" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B28" s="85" t="s">
         <v>69</v>
       </c>
       <c r="C28" s="85" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D28" s="56" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
@@ -3725,13 +3725,13 @@
     </row>
     <row r="29" spans="1:7">
       <c r="C29" s="91" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D29" s="92" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
